--- a/dados.xlsx
+++ b/dados.xlsx
@@ -44,7 +44,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="Report_matriz2_10_RAM.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="4" sourceFile="Macintosh HD:Users:Rui:Desktop:Report_matriz2_10_RAM.txt" decimal="," thousands=" " consecutive="1">
+    <textPr fileType="mac" firstRow="4" sourceFile="Macintosh HD:Users:Rui:Desktop:Report_matriz2_10_RAM.txt" decimal="," thousands=" " consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
         <textField/>
@@ -52,7 +52,7 @@
     </textPr>
   </connection>
   <connection id="2" name="Report_matriz2_11_lvl1.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="36" sourceFile="Macintosh HD:Users:Rui:Desktop:Report_matriz2_11_lvl1.txt" decimal="," thousands=" " consecutive="1">
+    <textPr fileType="mac" firstRow="36" sourceFile="Macintosh HD:Users:Rui:Desktop:Report_matriz2_11_lvl1.txt" decimal="," thousands=" " consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
         <textField/>
@@ -60,7 +60,7 @@
     </textPr>
   </connection>
   <connection id="3" name="Report_matriz2_11_lvl2.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="36" sourceFile="Macintosh HD:Users:Rui:Desktop:Report_matriz2_11_lvl2.txt" decimal="," thousands=" " consecutive="1">
+    <textPr fileType="mac" firstRow="36" sourceFile="Macintosh HD:Users:Rui:Desktop:Report_matriz2_11_lvl2.txt" decimal="," thousands=" " consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
         <textField/>
@@ -68,7 +68,7 @@
     </textPr>
   </connection>
   <connection id="4" name="Report_matriz2_12.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="37" sourceFile="Macintosh HD:Users:Rui:Desktop:Report_matriz2_12.txt" decimal="," thousands=" " consecutive="1">
+    <textPr fileType="mac" firstRow="37" sourceFile="Macintosh HD:Users:Rui:Desktop:Report_matriz2_12.txt" decimal="," thousands=" " consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
         <textField/>
@@ -76,7 +76,7 @@
     </textPr>
   </connection>
   <connection id="5" name="Report_matriz2_2_LVL1.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:Rui:Desktop:aa-master:Task2:TestesPerformance:652:LVL1:Report_matriz2_2_LVL1.txt" decimal="," thousands=" " space="1" consecutive="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:Rui:Desktop:aa-master:Task2:TestesPerformance:652:LVL1:Report_matriz2_2_LVL1.txt" decimal="," thousands=" " space="1" consecutive="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -84,7 +84,7 @@
     </textPr>
   </connection>
   <connection id="6" name="Report_matriz2_2_LVL2.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="4" sourceFile="Macintosh HD:Users:Rui:Desktop:aa-master:Task2:TestesPerformance:652:LVL2:Report_matriz2_2_LVL2.txt" decimal="," thousands=" ">
+    <textPr fileType="mac" firstRow="4" sourceFile="Macintosh HD:Users:Rui:Desktop:aa-master:Task2:TestesPerformance:652:LVL2:Report_matriz2_2_LVL2.txt" decimal="," thousands=" ">
       <textFields count="3">
         <textField type="skip"/>
         <textField/>
@@ -93,7 +93,7 @@
     </textPr>
   </connection>
   <connection id="7" name="Report_matriz2_2_LVL3.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="4" sourceFile="Macintosh HD:Users:Rui:Desktop:aa-master:Task2:TestesPerformance:652:LVL3:Report_matriz2_2_LVL3.txt" decimal="," thousands=" " consecutive="1">
+    <textPr fileType="mac" firstRow="4" sourceFile="Macintosh HD:Users:Rui:Desktop:aa-master:Task2:TestesPerformance:652:LVL3:Report_matriz2_2_LVL3.txt" decimal="," thousands=" " consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
         <textField/>
@@ -101,7 +101,7 @@
     </textPr>
   </connection>
   <connection id="8" name="Report_matriz2_2_RAM.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="4" sourceFile="Macintosh HD:Users:Rui:Desktop:aa-master:Task2:TestesPerformance:652:RAM:Report_matriz2_2_RAM.txt" decimal="," thousands=" " consecutive="1">
+    <textPr fileType="mac" firstRow="4" sourceFile="Macintosh HD:Users:Rui:Desktop:aa-master:Task2:TestesPerformance:652:RAM:Report_matriz2_2_RAM.txt" decimal="," thousands=" " consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
         <textField/>
@@ -109,7 +109,7 @@
     </textPr>
   </connection>
   <connection id="9" name="Report_matriz2_3_1_LVL1.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="4" sourceFile="Macintosh HD:Users:Rui:Desktop:aa-master:Task2:TestesPerformance:652:LVL1:Report_matriz2_3_1_LVL1.txt" decimal="," thousands=" " consecutive="1">
+    <textPr fileType="mac" firstRow="4" sourceFile="Macintosh HD:Users:Rui:Desktop:aa-master:Task2:TestesPerformance:652:LVL1:Report_matriz2_3_1_LVL1.txt" decimal="," thousands=" " consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
         <textField/>
@@ -117,7 +117,7 @@
     </textPr>
   </connection>
   <connection id="10" name="Report_matriz2_3_1_LVL2.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="4" sourceFile="Macintosh HD:Users:Rui:Desktop:aa-master:Task2:TestesPerformance:652:LVL2:Report_matriz2_3_1_LVL2.txt" decimal="," thousands=" " consecutive="1">
+    <textPr fileType="mac" firstRow="4" sourceFile="Macintosh HD:Users:Rui:Desktop:aa-master:Task2:TestesPerformance:652:LVL2:Report_matriz2_3_1_LVL2.txt" decimal="," thousands=" " consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
         <textField/>
@@ -125,7 +125,7 @@
     </textPr>
   </connection>
   <connection id="11" name="Report_matriz2_3_1_LVL3.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="4" sourceFile="Macintosh HD:Users:Rui:Desktop:aa-master:Task2:TestesPerformance:652:LVL3:Report_matriz2_3_1_LVL3.txt" decimal="," thousands=" " consecutive="1">
+    <textPr fileType="mac" firstRow="4" sourceFile="Macintosh HD:Users:Rui:Desktop:aa-master:Task2:TestesPerformance:652:LVL3:Report_matriz2_3_1_LVL3.txt" decimal="," thousands=" " consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
         <textField/>
@@ -133,7 +133,7 @@
     </textPr>
   </connection>
   <connection id="12" name="Report_matriz2_3_1_RAM.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:Rui:Desktop:aa-master:Task2:TestesPerformance:652:RAM:Report_matriz2_3_1_RAM.txt" decimal="," thousands=" " space="1" consecutive="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:Rui:Desktop:aa-master:Task2:TestesPerformance:652:RAM:Report_matriz2_3_1_RAM.txt" decimal="," thousands=" " space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -142,7 +142,7 @@
     </textPr>
   </connection>
   <connection id="13" name="Report_matriz2_3_1_RAM.txt1" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="4" sourceFile="Macintosh HD:Users:Rui:Desktop:aa-master:Task2:TestesPerformance:652:RAM:Report_matriz2_3_1_RAM.txt" decimal="," thousands=" " consecutive="1">
+    <textPr fileType="mac" firstRow="4" sourceFile="Macintosh HD:Users:Rui:Desktop:aa-master:Task2:TestesPerformance:652:RAM:Report_matriz2_3_1_RAM.txt" decimal="," thousands=" " consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
         <textField/>
@@ -150,7 +150,7 @@
     </textPr>
   </connection>
   <connection id="14" name="Report_matriz2_3_2_LVL1.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="4" sourceFile="Macintosh HD:Users:Rui:Desktop:aa-master:Task2:TestesPerformance:652:LVL1:Report_matriz2_3_2_LVL1.txt" decimal="," thousands=" " consecutive="1">
+    <textPr fileType="mac" firstRow="4" sourceFile="Macintosh HD:Users:Rui:Desktop:aa-master:Task2:TestesPerformance:652:LVL1:Report_matriz2_3_2_LVL1.txt" decimal="," thousands=" " consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
         <textField/>
@@ -158,7 +158,7 @@
     </textPr>
   </connection>
   <connection id="15" name="Report_matriz2_3_2_LVL2.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="4" sourceFile="Macintosh HD:Users:Rui:Desktop:aa-master:Task2:TestesPerformance:652:LVL2:Report_matriz2_3_2_LVL2.txt" decimal="," thousands=" " consecutive="1">
+    <textPr fileType="mac" firstRow="4" sourceFile="Macintosh HD:Users:Rui:Desktop:aa-master:Task2:TestesPerformance:652:LVL2:Report_matriz2_3_2_LVL2.txt" decimal="," thousands=" " consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
         <textField/>
@@ -166,7 +166,7 @@
     </textPr>
   </connection>
   <connection id="16" name="Report_matriz2_3_2_LVL3.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="4" sourceFile="Macintosh HD:Users:Rui:Desktop:aa-master:Task2:TestesPerformance:652:LVL3:Report_matriz2_3_2_LVL3.txt" decimal="," thousands=" " consecutive="1">
+    <textPr fileType="mac" firstRow="4" sourceFile="Macintosh HD:Users:Rui:Desktop:aa-master:Task2:TestesPerformance:652:LVL3:Report_matriz2_3_2_LVL3.txt" decimal="," thousands=" " consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
         <textField/>
@@ -174,7 +174,7 @@
     </textPr>
   </connection>
   <connection id="17" name="Report_matriz2_3_2_RAM.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="4" sourceFile="Macintosh HD:Users:Rui:Desktop:aa-master:Task2:TestesPerformance:652:RAM:Report_matriz2_3_2_RAM.txt" decimal="," thousands=" " consecutive="1">
+    <textPr fileType="mac" firstRow="4" sourceFile="Macintosh HD:Users:Rui:Desktop:aa-master:Task2:TestesPerformance:652:RAM:Report_matriz2_3_2_RAM.txt" decimal="," thousands=" " consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
         <textField/>
@@ -182,7 +182,7 @@
     </textPr>
   </connection>
   <connection id="18" name="Report_matriz2_3_2_Transposta_LVL1.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="4" sourceFile="Macintosh HD:Users:Rui:Desktop:aa-master:Task2:TestesPerformance:652:LVL1:Report_matriz2_3_2_Transposta_LVL1.txt" decimal="," thousands=" " consecutive="1">
+    <textPr fileType="mac" firstRow="4" sourceFile="Macintosh HD:Users:Rui:Desktop:aa-master:Task2:TestesPerformance:652:LVL1:Report_matriz2_3_2_Transposta_LVL1.txt" decimal="," thousands=" " consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
         <textField/>
@@ -190,7 +190,7 @@
     </textPr>
   </connection>
   <connection id="19" name="Report_matriz2_3_2_Transposta_LVL2.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="4" sourceFile="Macintosh HD:Users:Rui:Desktop:aa-master:Task2:TestesPerformance:652:LVL2:Report_matriz2_3_2_Transposta_LVL2.txt" decimal="," thousands=" " consecutive="1">
+    <textPr fileType="mac" firstRow="4" sourceFile="Macintosh HD:Users:Rui:Desktop:aa-master:Task2:TestesPerformance:652:LVL2:Report_matriz2_3_2_Transposta_LVL2.txt" decimal="," thousands=" " consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
         <textField/>
@@ -198,7 +198,7 @@
     </textPr>
   </connection>
   <connection id="20" name="Report_matriz2_3_2_Transposta_LVL3.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="4" sourceFile="Macintosh HD:Users:Rui:Desktop:aa-master:Task2:TestesPerformance:652:LVL3:Report_matriz2_3_2_Transposta_LVL3.txt" decimal="," thousands=" " consecutive="1">
+    <textPr fileType="mac" firstRow="4" sourceFile="Macintosh HD:Users:Rui:Desktop:aa-master:Task2:TestesPerformance:652:LVL3:Report_matriz2_3_2_Transposta_LVL3.txt" decimal="," thousands=" " consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
         <textField/>
@@ -206,7 +206,7 @@
     </textPr>
   </connection>
   <connection id="21" name="Report_matriz2_3_2_Transposta_RAM.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="4" sourceFile="Macintosh HD:Users:Rui:Desktop:aa-master:Task2:TestesPerformance:652:RAM:Report_matriz2_3_2_Transposta_RAM.txt" decimal="," thousands=" " consecutive="1">
+    <textPr fileType="mac" firstRow="4" sourceFile="Macintosh HD:Users:Rui:Desktop:aa-master:Task2:TestesPerformance:652:RAM:Report_matriz2_3_2_Transposta_RAM.txt" decimal="," thousands=" " consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
         <textField/>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="392">
   <si>
     <t>Bytes:</t>
   </si>
@@ -1390,6 +1390,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Intensidade Operacional</t>
   </si>
 </sst>
 </file>
@@ -2129,23 +2132,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Report_matriz2_12" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Report_matriz2_3_2_Transposta_LVL2" connectionId="19" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Report_matriz2_3_2_LVL3" connectionId="16" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Report_matriz2_2_LVL3" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Report_matriz2_3_2_LVL2" connectionId="15" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Report_matriz2_2_RAM" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Report_matriz2_3_2_LVL1" connectionId="14" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Report_matriz2_3_1_LVL1" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Report_matriz2_3_1_RAM_1" connectionId="13" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Report_matriz2_3_1_LVL2" connectionId="10" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2153,27 +2156,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Report_matriz2_3_1_LVL2" connectionId="10" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Report_matriz2_3_1_RAM_1" connectionId="13" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Report_matriz2_3_1_LVL1" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Report_matriz2_3_2_LVL1" connectionId="14" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Report_matriz2_2_RAM" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Report_matriz2_3_2_LVL2" connectionId="15" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Report_matriz2_2_LVL3" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Report_matriz2_3_2_LVL3" connectionId="16" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Report_matriz2_2_LVL2" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Report_matriz2_3_1_RAM" connectionId="12" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Report_matriz2_11_lvl2" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Report_matriz2_3_2_RAM" connectionId="17" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2181,35 +2184,35 @@
 </file>
 
 <file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Report_matriz2_3_1_RAM" connectionId="12" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Report_matriz2_3_2_Transposta_LVL1" connectionId="18" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Report_matriz2_3_2_Transposta_LVL3" connectionId="20" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Report_matriz2_3_2_Transposta_RAM" connectionId="21" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Report_matriz2_10_RAM" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Report_matriz2_11_lvl1" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Report_matriz2_10_RAM" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Report_matriz2_3_2_Transposta_RAM" connectionId="21" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Report_matriz2_3_2_Transposta_LVL3" connectionId="20" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Report_matriz2_3_2_Transposta_LVL2" connectionId="19" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Report_matriz2_11_lvl2" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Report_matriz2_3_2_Transposta_LVL1" connectionId="18" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Report_matriz2_12" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Report_matriz2_3_2_RAM" connectionId="17" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Report_matriz2_2_LVL2" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2536,8 +2539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FU184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="P182" sqref="P182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2551,6 +2554,7 @@
     <col min="10" max="10" width="10.1640625" customWidth="1"/>
     <col min="11" max="11" width="8.83203125" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="15" max="15" width="21.83203125" customWidth="1"/>
     <col min="22" max="22" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="12.5" customWidth="1"/>
@@ -2604,6 +2608,9 @@
       <c r="L1" t="s">
         <v>63</v>
       </c>
+      <c r="O1" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="2" spans="1:177">
       <c r="A2" t="s">
@@ -3480,6 +3487,10 @@
       <c r="L31">
         <v>1242081462881</v>
       </c>
+      <c r="O31">
+        <f>(3000*3000*3000*2)/(64*J31)</f>
+        <v>0.48186605620834505</v>
+      </c>
     </row>
     <row r="32" spans="1:177">
       <c r="A32" t="s">
@@ -3509,6 +3520,10 @@
       <c r="L32">
         <v>1242081387972</v>
       </c>
+      <c r="O32">
+        <f>(3000*3000*3000*2)/(64*J32)</f>
+        <v>0.47877216485738228</v>
+      </c>
     </row>
     <row r="33" spans="1:177">
       <c r="A33" t="s">
@@ -3538,6 +3553,10 @@
       <c r="L33">
         <v>1242081426507</v>
       </c>
+      <c r="O33">
+        <f t="shared" ref="O33:O38" si="0">(3000*3000*3000*2)/(64*J33)</f>
+        <v>0.48026349005357949</v>
+      </c>
     </row>
     <row r="34" spans="1:177">
       <c r="A34" t="s">
@@ -3567,6 +3586,10 @@
       <c r="L34">
         <v>1242081463762</v>
       </c>
+      <c r="O34">
+        <f t="shared" si="0"/>
+        <v>0.50334359292240383</v>
+      </c>
     </row>
     <row r="35" spans="1:177">
       <c r="A35" t="s">
@@ -3596,6 +3619,10 @@
       <c r="L35">
         <v>1242081366113</v>
       </c>
+      <c r="O35">
+        <f t="shared" si="0"/>
+        <v>0.53405523008733602</v>
+      </c>
     </row>
     <row r="36" spans="1:177">
       <c r="A36" t="s">
@@ -3625,6 +3652,10 @@
       <c r="L36">
         <v>1242081472875</v>
       </c>
+      <c r="O36">
+        <f t="shared" si="0"/>
+        <v>0.53907964183414425</v>
+      </c>
     </row>
     <row r="37" spans="1:177">
       <c r="A37" t="s">
@@ -3654,6 +3685,10 @@
       <c r="L37">
         <v>1242081443007</v>
       </c>
+      <c r="O37">
+        <f t="shared" si="0"/>
+        <v>0.53746145414833402</v>
+      </c>
     </row>
     <row r="38" spans="1:177">
       <c r="A38" t="s">
@@ -3683,6 +3718,10 @@
       <c r="L38">
         <v>1242081426658</v>
       </c>
+      <c r="O38">
+        <f t="shared" si="0"/>
+        <v>0.52069766523523797</v>
+      </c>
     </row>
     <row r="39" spans="1:177">
       <c r="V39" t="s">
@@ -4557,6 +4596,10 @@
       <c r="L67">
         <v>1242081170584</v>
       </c>
+      <c r="O67">
+        <f>(3000*3000*3000*2)/(64*J67)</f>
+        <v>7.7988904307147635</v>
+      </c>
     </row>
     <row r="68" spans="1:177">
       <c r="A68" t="s">
@@ -4586,6 +4629,10 @@
       <c r="L68">
         <v>1242081174036</v>
       </c>
+      <c r="O68">
+        <f t="shared" ref="O68:O74" si="1">(3000*3000*3000*2)/(64*J68)</f>
+        <v>7.9190407207726441</v>
+      </c>
     </row>
     <row r="69" spans="1:177">
       <c r="A69" t="s">
@@ -4615,6 +4662,10 @@
       <c r="L69">
         <v>1242081174830</v>
       </c>
+      <c r="O69">
+        <f t="shared" si="1"/>
+        <v>7.7566804140018197</v>
+      </c>
       <c r="BQ69">
         <v>36000000</v>
       </c>
@@ -4647,6 +4698,10 @@
       <c r="L70">
         <v>1242081172061</v>
       </c>
+      <c r="O70">
+        <f t="shared" si="1"/>
+        <v>7.8027103439164689</v>
+      </c>
       <c r="BQ70" t="s">
         <v>24</v>
       </c>
@@ -4679,6 +4734,10 @@
       <c r="L71">
         <v>1242081167257</v>
       </c>
+      <c r="O71">
+        <f t="shared" si="1"/>
+        <v>8.1102733416358177</v>
+      </c>
       <c r="BQ71" t="s">
         <v>25</v>
       </c>
@@ -4711,6 +4770,10 @@
       <c r="L72">
         <v>1242081173959</v>
       </c>
+      <c r="O72">
+        <f t="shared" si="1"/>
+        <v>8.0225770483783307</v>
+      </c>
       <c r="BQ72">
         <v>1818500994</v>
       </c>
@@ -4743,6 +4806,10 @@
       <c r="L73">
         <v>1242081172289</v>
       </c>
+      <c r="O73">
+        <f t="shared" si="1"/>
+        <v>8.0011934034814125</v>
+      </c>
       <c r="BQ73">
         <v>115749709</v>
       </c>
@@ -4775,6 +4842,10 @@
       <c r="L74">
         <v>1242081173434</v>
       </c>
+      <c r="O74">
+        <f t="shared" si="1"/>
+        <v>8.108467471490485</v>
+      </c>
       <c r="BQ74">
         <v>105422277</v>
       </c>
@@ -5650,6 +5721,10 @@
       <c r="L103">
         <v>1242081436331</v>
       </c>
+      <c r="O103">
+        <f>(3000*3000*3000*2)/(64*J103)</f>
+        <v>0.47408022114623333</v>
+      </c>
       <c r="BQ103" t="s">
         <v>390</v>
       </c>
@@ -5682,6 +5757,10 @@
       <c r="L104">
         <v>1242081459712</v>
       </c>
+      <c r="O104">
+        <f t="shared" ref="O104:O110" si="2">(3000*3000*3000*2)/(64*J104)</f>
+        <v>0.4734573459799597</v>
+      </c>
     </row>
     <row r="105" spans="1:69">
       <c r="A105" t="s">
@@ -5711,6 +5790,10 @@
       <c r="L105">
         <v>1242081446988</v>
       </c>
+      <c r="O105">
+        <f t="shared" si="2"/>
+        <v>0.47772468617230651</v>
+      </c>
     </row>
     <row r="106" spans="1:69">
       <c r="A106" t="s">
@@ -5740,6 +5823,10 @@
       <c r="L106">
         <v>1242081447696</v>
       </c>
+      <c r="O106">
+        <f t="shared" si="2"/>
+        <v>0.4852900155825402</v>
+      </c>
     </row>
     <row r="107" spans="1:69">
       <c r="A107" t="s">
@@ -5769,6 +5856,10 @@
       <c r="L107">
         <v>1242081468166</v>
       </c>
+      <c r="O107">
+        <f t="shared" si="2"/>
+        <v>0.51649199683729496</v>
+      </c>
     </row>
     <row r="108" spans="1:69">
       <c r="A108" t="s">
@@ -5798,6 +5889,10 @@
       <c r="L108">
         <v>1242081477053</v>
       </c>
+      <c r="O108">
+        <f t="shared" si="2"/>
+        <v>0.52128221685118425</v>
+      </c>
     </row>
     <row r="109" spans="1:69">
       <c r="A109" t="s">
@@ -5827,6 +5922,10 @@
       <c r="L109">
         <v>1242081453633</v>
       </c>
+      <c r="O109">
+        <f t="shared" si="2"/>
+        <v>0.52069470158320164</v>
+      </c>
       <c r="BQ109">
         <v>36000000</v>
       </c>
@@ -5859,6 +5958,10 @@
       <c r="L110">
         <v>1242081490108</v>
       </c>
+      <c r="O110">
+        <f t="shared" si="2"/>
+        <v>0.50884472145922266</v>
+      </c>
       <c r="BQ110" t="s">
         <v>31</v>
       </c>
@@ -6347,7 +6450,7 @@
         <v>371367356</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:15">
       <c r="A130" t="s">
         <v>38</v>
       </c>
@@ -6376,7 +6479,7 @@
         <v>23604339171</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:15">
       <c r="A131" t="s">
         <v>38</v>
       </c>
@@ -6405,7 +6508,7 @@
         <v>23604339143</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:15">
       <c r="A132" t="s">
         <v>38</v>
       </c>
@@ -6434,7 +6537,7 @@
         <v>23604339219</v>
       </c>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:15">
       <c r="A133" t="s">
         <v>38</v>
       </c>
@@ -6463,7 +6566,7 @@
         <v>23604339127</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:15">
       <c r="A134" t="s">
         <v>38</v>
       </c>
@@ -6492,7 +6595,7 @@
         <v>23604339131</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:15">
       <c r="A135" t="s">
         <v>38</v>
       </c>
@@ -6521,7 +6624,7 @@
         <v>23604339129</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:15">
       <c r="A136" t="s">
         <v>38</v>
       </c>
@@ -6550,7 +6653,7 @@
         <v>23604339132</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:15">
       <c r="A137" t="s">
         <v>38</v>
       </c>
@@ -6579,7 +6682,7 @@
         <v>23604339171</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:15">
       <c r="A139" t="s">
         <v>38</v>
       </c>
@@ -6607,8 +6710,12 @@
       <c r="L139">
         <v>1242731120064</v>
       </c>
-    </row>
-    <row r="140" spans="1:12">
+      <c r="O139">
+        <f>(3000*3000*3000*2)/(64*J139)</f>
+        <v>10.357372753553365</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
       <c r="A140" t="s">
         <v>38</v>
       </c>
@@ -6636,8 +6743,12 @@
       <c r="L140">
         <v>1242731115560</v>
       </c>
-    </row>
-    <row r="141" spans="1:12">
+      <c r="O140">
+        <f t="shared" ref="O140:O146" si="3">(3000*3000*3000*2)/(64*J140)</f>
+        <v>10.738418998511436</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
       <c r="A141" t="s">
         <v>38</v>
       </c>
@@ -6665,8 +6776,12 @@
       <c r="L141">
         <v>1242731115267</v>
       </c>
-    </row>
-    <row r="142" spans="1:12">
+      <c r="O141">
+        <f t="shared" si="3"/>
+        <v>10.746995063757097</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
       <c r="A142" t="s">
         <v>38</v>
       </c>
@@ -6694,8 +6809,12 @@
       <c r="L142">
         <v>1242731119802</v>
       </c>
-    </row>
-    <row r="143" spans="1:12">
+      <c r="O142">
+        <f t="shared" si="3"/>
+        <v>10.140777792789134</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
       <c r="A143" t="s">
         <v>38</v>
       </c>
@@ -6723,8 +6842,12 @@
       <c r="L143">
         <v>1242731124350</v>
       </c>
-    </row>
-    <row r="144" spans="1:12">
+      <c r="O143">
+        <f t="shared" si="3"/>
+        <v>10.233615460112993</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
       <c r="A144" t="s">
         <v>38</v>
       </c>
@@ -6751,6 +6874,10 @@
       </c>
       <c r="L144">
         <v>1242731125532</v>
+      </c>
+      <c r="O144">
+        <f t="shared" si="3"/>
+        <v>10.227529221308593</v>
       </c>
     </row>
     <row r="145" spans="1:67">
@@ -6781,6 +6908,10 @@
       <c r="L145">
         <v>1242731122256</v>
       </c>
+      <c r="O145">
+        <f t="shared" si="3"/>
+        <v>10.273651226666651</v>
+      </c>
       <c r="BO145" t="s">
         <v>390</v>
       </c>
@@ -6813,6 +6944,10 @@
       <c r="L146">
         <v>1242731118802</v>
       </c>
+      <c r="O146">
+        <f t="shared" si="3"/>
+        <v>10.251104370457355</v>
+      </c>
     </row>
     <row r="148" spans="1:67">
       <c r="A148" t="s">
@@ -6842,6 +6977,10 @@
       <c r="L148">
         <v>756414762749</v>
       </c>
+      <c r="O148">
+        <f>(3000*3000*3000*2)/(64*J148)</f>
+        <v>15.535953953697279</v>
+      </c>
     </row>
     <row r="149" spans="1:67">
       <c r="A149" t="s">
@@ -6871,6 +7010,10 @@
       <c r="L149">
         <v>756414762877</v>
       </c>
+      <c r="O149">
+        <f t="shared" ref="O149:O155" si="4">(3000*3000*3000*2)/(64*J149)</f>
+        <v>16.240577433514108</v>
+      </c>
     </row>
     <row r="150" spans="1:67">
       <c r="A150" t="s">
@@ -6900,6 +7043,10 @@
       <c r="L150">
         <v>756414789648</v>
       </c>
+      <c r="O150">
+        <f t="shared" si="4"/>
+        <v>13.121226510205352</v>
+      </c>
     </row>
     <row r="151" spans="1:67">
       <c r="A151" t="s">
@@ -6929,6 +7076,10 @@
       <c r="L151">
         <v>756414789666</v>
       </c>
+      <c r="O151">
+        <f t="shared" si="4"/>
+        <v>13.413319907560567</v>
+      </c>
     </row>
     <row r="152" spans="1:67">
       <c r="A152" t="s">
@@ -6958,6 +7109,10 @@
       <c r="L152">
         <v>756414792166</v>
       </c>
+      <c r="O152">
+        <f t="shared" si="4"/>
+        <v>13.128695085819343</v>
+      </c>
     </row>
     <row r="153" spans="1:67">
       <c r="A153" t="s">
@@ -6987,6 +7142,10 @@
       <c r="L153">
         <v>756414784768</v>
       </c>
+      <c r="O153">
+        <f t="shared" si="4"/>
+        <v>13.79812425968464</v>
+      </c>
     </row>
     <row r="154" spans="1:67">
       <c r="A154" t="s">
@@ -7016,6 +7175,10 @@
       <c r="L154">
         <v>756414766058</v>
       </c>
+      <c r="O154">
+        <f t="shared" si="4"/>
+        <v>15.206101471869523</v>
+      </c>
     </row>
     <row r="155" spans="1:67">
       <c r="A155" t="s">
@@ -7045,6 +7208,10 @@
       <c r="L155">
         <v>756414766091</v>
       </c>
+      <c r="O155">
+        <f t="shared" si="4"/>
+        <v>14.889401788217596</v>
+      </c>
     </row>
     <row r="158" spans="1:67">
       <c r="A158" t="s">
@@ -7510,7 +7677,7 @@
         <v>80682008</v>
       </c>
     </row>
-    <row r="177" spans="1:12">
+    <row r="177" spans="1:15">
       <c r="A177" t="s">
         <v>41</v>
       </c>
@@ -7538,8 +7705,12 @@
       <c r="L177">
         <v>8312210230</v>
       </c>
-    </row>
-    <row r="178" spans="1:12">
+      <c r="O177">
+        <f>(3000*3000*3000*2)/(64*J177)</f>
+        <v>17.789243667139942</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15">
       <c r="A178" t="s">
         <v>41</v>
       </c>
@@ -7567,8 +7738,12 @@
       <c r="L178">
         <v>8318632892</v>
       </c>
-    </row>
-    <row r="179" spans="1:12">
+      <c r="O178">
+        <f t="shared" ref="O178:O184" si="5">(3000*3000*3000*2)/(64*J178)</f>
+        <v>18.127417861849846</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15">
       <c r="A179" t="s">
         <v>41</v>
       </c>
@@ -7596,8 +7771,12 @@
       <c r="L179">
         <v>8319203660</v>
       </c>
-    </row>
-    <row r="180" spans="1:12">
+      <c r="O179">
+        <f t="shared" si="5"/>
+        <v>17.814259316456472</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15">
       <c r="A180" t="s">
         <v>41</v>
       </c>
@@ -7625,8 +7804,12 @@
       <c r="L180">
         <v>8314669720</v>
       </c>
-    </row>
-    <row r="181" spans="1:12">
+      <c r="O180">
+        <f t="shared" si="5"/>
+        <v>17.936639562127887</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15">
       <c r="A181" t="s">
         <v>41</v>
       </c>
@@ -7654,8 +7837,12 @@
       <c r="L181">
         <v>8317762930</v>
       </c>
-    </row>
-    <row r="182" spans="1:12">
+      <c r="O181">
+        <f t="shared" si="5"/>
+        <v>17.631676441946709</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15">
       <c r="A182" t="s">
         <v>41</v>
       </c>
@@ -7683,8 +7870,12 @@
       <c r="L182">
         <v>8310224984</v>
       </c>
-    </row>
-    <row r="183" spans="1:12">
+      <c r="O182">
+        <f t="shared" si="5"/>
+        <v>17.358647683270135</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15">
       <c r="A183" t="s">
         <v>41</v>
       </c>
@@ -7712,8 +7903,12 @@
       <c r="L183">
         <v>8286992430</v>
       </c>
-    </row>
-    <row r="184" spans="1:12">
+      <c r="O183">
+        <f t="shared" si="5"/>
+        <v>17.101914356369477</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15">
       <c r="A184" t="s">
         <v>41</v>
       </c>
@@ -7740,6 +7935,10 @@
       </c>
       <c r="L184">
         <v>8193162886</v>
+      </c>
+      <c r="O184">
+        <f t="shared" si="5"/>
+        <v>18.645034669820468</v>
       </c>
     </row>
   </sheetData>
